--- a/biology/Botanique/Pois_bambara/Pois_bambara.xlsx
+++ b/biology/Botanique/Pois_bambara/Pois_bambara.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vigna subterranea
-Le pois bambara ou pois de terre (Vigna subterranea) est une plante herbacée de la famille des légumineuses (Fabaceae), originaire d'Afrique occidentale[1], largement cultivée pour ses graines qui se récoltent sous terre à l'instar des arachides.
-Au Bénin, on l'appelle voandzou[2]en français courant ou encore azingokouin en fongbé[3]. Au Togo et au Ghana il est appelé azin'kokui par les Guin et les Ewe. À Madagascar, il est nommé voanjobory.
+Le pois bambara ou pois de terre (Vigna subterranea) est une plante herbacée de la famille des légumineuses (Fabaceae), originaire d'Afrique occidentale, largement cultivée pour ses graines qui se récoltent sous terre à l'instar des arachides.
+Au Bénin, on l'appelle voandzouen français courant ou encore azingokouin en fongbé. Au Togo et au Ghana il est appelé azin'kokui par les Guin et les Ewe. À Madagascar, il est nommé voanjobory.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une espèce annuelle à tiges ramifiée, poilues avec des entrenœuds courts. Au contact du sol, ces tiges forment de nouvelles racines. Les feuilles sont trifoliées avec des folioles de 3 à 8 cm de long. Les fleurs sont jaunes, ou rouges  Après la fécondation elles pénètrent dans le sol.  Les gousses de 1,5 à 3 cm contiennent 2 à 3 graines sphériques blanches, rouges, noires ou marbrées[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une espèce annuelle à tiges ramifiée, poilues avec des entrenœuds courts. Au contact du sol, ces tiges forment de nouvelles racines. Les feuilles sont trifoliées avec des folioles de 3 à 8 cm de long. Les fleurs sont jaunes, ou rouges  Après la fécondation elles pénètrent dans le sol.  Les gousses de 1,5 à 3 cm contiennent 2 à 3 graines sphériques blanches, rouges, noires ou marbrées.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les jeunes graines sont consommées crues. Les grains secs sont consommés grillés ou cuits à  l'eau après trempage[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les jeunes graines sont consommées crues. Les grains secs sont consommés grillés ou cuits à  l'eau après trempage.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Glycine subterranea L.
 Voandzeia subterranea (L.) Thouars ex DC.</t>
